--- a/新型肺炎/卫健委统计数据.xlsx
+++ b/新型肺炎/卫健委统计数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\markdownnotebook\新型肺炎\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E7C360-A17C-45C0-A95D-E05FECCB75D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2D8251-7D7B-4BFE-9DFE-57FB2EBB7E41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" xr2:uid="{94B3E285-365C-4558-8FDE-431C34B851E3}"/>
+    <workbookView xWindow="11250" yWindow="0" windowWidth="11250" windowHeight="6000" xr2:uid="{94B3E285-365C-4558-8FDE-431C34B851E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,8 +69,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="181" formatCode="[$-409]mmmdd;@"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]mmmdd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -118,10 +118,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7073B00-1E37-4969-87AE-0541FD9DC060}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -944,6 +944,29 @@
         <v>6509</v>
       </c>
     </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="3">
+        <v>43862</v>
+      </c>
+      <c r="B24" s="1">
+        <v>14380</v>
+      </c>
+      <c r="C24" s="1">
+        <v>19544</v>
+      </c>
+      <c r="D24" s="2">
+        <v>328</v>
+      </c>
+      <c r="E24" s="2">
+        <v>304</v>
+      </c>
+      <c r="F24" s="2">
+        <v>163844</v>
+      </c>
+      <c r="G24" s="2">
+        <v>8044</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/新型肺炎/卫健委统计数据.xlsx
+++ b/新型肺炎/卫健委统计数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\markdownnotebook\新型肺炎\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2D8251-7D7B-4BFE-9DFE-57FB2EBB7E41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1692458-C1AD-4085-A92B-7AE38864C66C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11250" yWindow="0" windowWidth="11250" windowHeight="6000" xr2:uid="{94B3E285-365C-4558-8FDE-431C34B851E3}"/>
   </bookViews>
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7073B00-1E37-4969-87AE-0541FD9DC060}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -967,6 +967,29 @@
         <v>8044</v>
       </c>
     </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="3">
+        <v>43863</v>
+      </c>
+      <c r="B25" s="1">
+        <v>17205</v>
+      </c>
+      <c r="C25" s="1">
+        <v>21558</v>
+      </c>
+      <c r="D25" s="2">
+        <v>361</v>
+      </c>
+      <c r="E25" s="2">
+        <v>475</v>
+      </c>
+      <c r="F25" s="2">
+        <v>189583</v>
+      </c>
+      <c r="G25" s="2">
+        <v>10055</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
